--- a/Team-Data/2012-13/3-18-2012-13.xlsx
+++ b/Team-Data/2012-13/3-18-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
@@ -699,10 +766,10 @@
         <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
         <v>0.706</v>
@@ -711,13 +778,13 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -726,25 +793,25 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,16 +820,16 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -780,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -816,10 +883,10 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
@@ -866,43 +933,43 @@
         <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.357</v>
+        <v>0.354</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U3" t="n">
         <v>23.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8.4</v>
@@ -911,16 +978,16 @@
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>0.4</v>
@@ -947,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
@@ -956,22 +1023,22 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.582</v>
+        <v>0.576</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
@@ -1060,7 +1127,7 @@
         <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
         <v>17.3</v>
@@ -1069,13 +1136,13 @@
         <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
         <v>42.7</v>
@@ -1102,13 +1169,13 @@
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1150,25 +1217,25 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>52</v>
       </c>
       <c r="G5" t="n">
-        <v>0.224</v>
+        <v>0.212</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1275,22 +1342,22 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
         <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.9</v>
+        <v>-10.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,13 +1369,13 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,22 +1390,22 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.435</v>
@@ -1421,10 +1488,10 @@
         <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
         <v>16.8</v>
@@ -1433,7 +1500,7 @@
         <v>21.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,7 +1512,7 @@
         <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.7</v>
@@ -1454,7 +1521,7 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>5.9</v>
@@ -1466,7 +1533,7 @@
         <v>19.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5</v>
@@ -1484,16 +1551,16 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1517,22 +1584,22 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>19</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1544,10 +1611,10 @@
         <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1576,55 +1643,55 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I7" t="n">
         <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
         <v>23.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
         <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1636,7 +1703,7 @@
         <v>8.1</v>
       </c>
       <c r="X7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y7" t="n">
         <v>7.1</v>
@@ -1648,22 +1715,22 @@
         <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1675,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1684,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
         <v>35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.478</v>
+        <v>0.47</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
         <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
@@ -1806,10 +1873,10 @@
         <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
         <v>14.2</v>
@@ -1818,34 +1885,34 @@
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1857,16 +1924,16 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1878,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
@@ -1896,10 +1963,10 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.676</v>
+        <v>0.672</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
@@ -1979,16 +2046,16 @@
         <v>25.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
         <v>24.4</v>
@@ -2012,7 +2079,7 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
@@ -2021,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J10" t="n">
         <v>81.3</v>
@@ -2152,25 +2219,25 @@
         <v>17.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O10" t="n">
         <v>15.9</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.695</v>
+        <v>0.694</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
@@ -2188,16 +2255,16 @@
         <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-4.1</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2230,13 +2297,13 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="O11" t="n">
         <v>17.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>34.1</v>
@@ -2364,7 +2431,7 @@
         <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5</v>
@@ -2373,13 +2440,13 @@
         <v>21.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2388,13 +2455,13 @@
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
@@ -2442,13 +2509,13 @@
         <v>27</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2591,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.612</v>
+        <v>0.606</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.434</v>
@@ -2701,31 +2768,31 @@
         <v>0.358</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R13" t="n">
         <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6.6</v>
@@ -2734,19 +2801,19 @@
         <v>5.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2779,13 +2846,13 @@
         <v>17</v>
       </c>
       <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
         <v>14</v>
       </c>
-      <c r="AP13" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2973,16 +3040,16 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S15" t="n">
         <v>33.2</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3092,22 +3159,22 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3116,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -3125,13 +3192,13 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3161,16 +3228,16 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3214,82 +3281,82 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V16" t="n">
         <v>14.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
         <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD16" t="n">
         <v>21</v>
@@ -3304,10 +3371,10 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3322,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3340,19 +3407,19 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.788</v>
+        <v>0.785</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,7 +3481,7 @@
         <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.496</v>
@@ -3429,13 +3496,13 @@
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
         <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
@@ -3456,19 +3523,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3519,22 +3586,22 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3665,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3689,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3722,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>11</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,13 +3857,13 @@
         <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.298</v>
+        <v>0.299</v>
       </c>
       <c r="O19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.73</v>
@@ -3811,40 +3878,40 @@
         <v>42.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>8.1</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA19" t="n">
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3853,13 +3920,13 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,28 +3947,28 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -3942,46 +4009,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J20" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
@@ -3993,13 +4060,13 @@
         <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
         <v>5.5</v>
@@ -4008,34 +4075,34 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
         <v>4</v>
       </c>
       <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG20" t="n">
         <v>27</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>28</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>25</v>
@@ -4050,16 +4117,16 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>9</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4151,31 +4218,31 @@
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
         <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q21" t="n">
         <v>0.758</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
         <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V21" t="n">
         <v>12.2</v>
@@ -4193,16 +4260,16 @@
         <v>19.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC21" t="n">
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4229,13 +4296,13 @@
         <v>2</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4250,7 +4317,7 @@
         <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
         <v>13</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4590,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
@@ -4626,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.394</v>
+        <v>0.385</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
         <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
         <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4736,40 +4803,40 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4793,7 +4860,7 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>0.338</v>
+        <v>0.328</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
         <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4882,25 +4949,25 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.737</v>
+        <v>0.74</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.2</v>
@@ -4912,37 +4979,37 @@
         <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.9</v>
+        <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
         <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4969,13 +5036,13 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
         <v>22</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4987,22 +5054,22 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.47</v>
+        <v>0.477</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5064,13 +5131,13 @@
         <v>23.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q26" t="n">
         <v>0.781</v>
@@ -5079,13 +5146,13 @@
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.7</v>
@@ -5109,22 +5176,22 @@
         <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5139,16 +5206,16 @@
         <v>6</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
         <v>7</v>
@@ -5160,7 +5227,7 @@
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5172,16 +5239,16 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>6</v>
@@ -5324,22 +5391,22 @@
         <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,10 +5600,10 @@
         <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5667,7 +5734,7 @@
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,10 +5755,10 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5706,13 +5773,13 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5730,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O30" t="n">
         <v>18.5</v>
@@ -5801,19 +5868,19 @@
         <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -5822,37 +5889,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG30" t="n">
         <v>16</v>
       </c>
-      <c r="AG30" t="n">
-        <v>17</v>
-      </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5882,16 +5949,16 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
       </c>
       <c r="AT30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU30" t="n">
         <v>13</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>14</v>
       </c>
       <c r="AV30" t="n">
         <v>20</v>
@@ -5903,10 +5970,10 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5915,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
         <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
@@ -5977,19 +6044,19 @@
         <v>0.364</v>
       </c>
       <c r="O31" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
         <v>43.4</v>
@@ -6001,7 +6068,7 @@
         <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,16 +6077,16 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
@@ -6034,16 +6101,16 @@
         <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6061,10 +6128,10 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6073,7 +6140,7 @@
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
         <v>27</v>
@@ -6088,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2012-13</t>
+          <t>2013-03-18</t>
         </is>
       </c>
     </row>
